--- a/WorkDiary/20180910-20180914.xlsx
+++ b/WorkDiary/20180910-20180914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,17 @@
 9、通信响应信息解密源码学习和整理
 10、通信响应信息验签源码学习和整理
 11、OAuth端生成token源码学习和整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、利用OpenSSL工具生成ca根证书、sdk端证书、terminal端证书
+2、利用keytool工具生成keyStore、trustStore，并导入对应证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、重新生成服务端和客户端的密钥库、信任库，废弃昨天生成的错误文件
+2、配置https交易，测试生成的密钥库和信任库是否正确
+3、整理ca证书生成流程，并上传ca证书生成策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +491,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,8 +538,12 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>

--- a/WorkDiary/20180910-20180914.xlsx
+++ b/WorkDiary/20180910-20180914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,12 @@
     <t>1、重新生成服务端和客户端的密钥库、信任库，废弃昨天生成的错误文件
 2、配置https交易，测试生成的密钥库和信任库是否正确
 3、整理ca证书生成流程，并上传ca证书生成策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习SSL协议通信流程
+2、学习证书校验细节（参照浏览器校验规则），和证书结构
+3、学习RSA数学原理，理解加密和验签原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +497,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,7 +550,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">

--- a/WorkDiary/20180910-20180914.xlsx
+++ b/WorkDiary/20180910-20180914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
     <t>1、学习SSL协议通信流程
 2、学习证书校验细节（参照浏览器校验规则），和证书结构
 3、学习RSA数学原理，理解加密和验签原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习密码学相关知识，《图解密码技术》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +501,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +557,9 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
